--- a/01同步时序电路状态转换表.xlsx
+++ b/01同步时序电路状态转换表.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F5A6CBDDD51B21CDE0608102655CA6F31854F419" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learning\数电\hust_digital_wire_design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD505AC-29DD-4FD2-B070-A233578EB21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态转换真值表" sheetId="1" r:id="rId1"/>
@@ -14,11 +19,11 @@
     <sheet name="输出函数自动生成" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">输出函数自动生成!$A$1:$T$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">状态转换函数自动生成!$A$1:$Q$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">输出函数自动生成!$A$1:$T$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">状态转换真值表!$O$2:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,9 +92,6 @@
   <si>
     <t>次态
 10进制</t>
-  </si>
-  <si>
-    <t>N3</t>
   </si>
   <si>
     <t>N2</t>
@@ -163,15 +165,19 @@
   <si>
     <t>这里是输出信号的最终的表达式，复制到Logisim中即可</t>
   </si>
+  <si>
+    <t>N3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +267,27 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -777,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,43 +847,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,9 +889,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,9 +896,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,10 +910,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +931,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,25 +973,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,10 +1000,37 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,32 +1078,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,1414 +1753,1427 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="3.625" style="24" customWidth="1"/>
-    <col min="5" max="6" width="7.625" style="25" customWidth="1"/>
-    <col min="7" max="13" width="6.625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="25" customWidth="1"/>
-    <col min="15" max="17" width="3.625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="25" customWidth="1"/>
+    <col min="1" max="4" width="3.59765625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7" max="13" width="6.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="7.84765625" style="23" customWidth="1"/>
+    <col min="15" max="18" width="3.59765625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-    </row>
-    <row r="2" spans="1:18" ht="27.75">
-      <c r="A2" s="26" t="s">
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="81"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="Q2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="R2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="30">
+    </row>
+    <row r="3" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A3" s="28">
         <f t="shared" ref="A3:A17" si="0">IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <f t="shared" ref="B3:B17" si="1">IF(ISNUMBER($E3),IF(MOD($E3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <f t="shared" ref="C3:C17" si="2">IF(ISNUMBER($E3),IF(MOD($E3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <f t="shared" ref="D3:D17" si="3">IF(ISNUMBER($E3),MOD($E3,2),"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="65">
         <v>0</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33">
-        <v>0</v>
-      </c>
-      <c r="J3" s="33">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33">
-        <v>0</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="88">
-        <v>1</v>
-      </c>
-      <c r="O3" s="30">
+      <c r="O3" s="28">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="28">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="28">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="28">
         <f>IF(ISNUMBER($N3),MOD($N3,2),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="34">
+    <row r="4" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A4" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="67">
         <v>1</v>
       </c>
-      <c r="F4" s="36">
-        <v>1</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37">
-        <v>1</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="90">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="68">
         <v>2</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="31">
         <f t="shared" ref="O4:O31" si="4">IF(ISNUMBER($N4),IF(MOD($N4,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="31">
         <f t="shared" ref="P4:P31" si="5">IF(ISNUMBER($N4),IF(MOD($N4,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="31">
         <f t="shared" ref="Q4:Q31" si="6">IF(ISNUMBER($N4),IF(MOD($N4,4)/2&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="31">
         <f t="shared" ref="R4:R31" si="7">IF(ISNUMBER($N4),MOD($N4,2),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
-      <c r="A5" s="30" t="str">
+    <row r="5" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A5" s="28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="B5" s="28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D5" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="65">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="66">
+        <v>3</v>
+      </c>
+      <c r="O5" s="28">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q5" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R5" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="R5" s="28">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A6" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C6" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D6" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" s="67">
+        <v>3</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="68">
+        <v>4</v>
+      </c>
+      <c r="O6" s="31">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P6" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q6" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="31">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R6" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="R6" s="31">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A7" s="28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="B7" s="28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C7" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D7" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="65">
+        <v>4</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="66">
+        <v>5</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P7" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q7" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="28">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R7" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A8" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C8" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D8" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" s="67">
+        <v>5</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="68">
+        <v>6</v>
+      </c>
+      <c r="O8" s="31">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P8" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q8" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="31">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R8" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="R8" s="31">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15">
-      <c r="A9" s="30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A9" s="28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C9" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D9" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" s="65">
+        <v>6</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="66">
+        <v>7</v>
+      </c>
+      <c r="O9" s="28">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P9" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q9" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="28">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R9" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="R9" s="28">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15">
-      <c r="A10" s="34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A10" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C10" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D10" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" s="67">
+        <v>7</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="68">
+        <v>8</v>
+      </c>
+      <c r="O10" s="31">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P10" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q10" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R10" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15">
-      <c r="A11" s="30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A11" s="28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C11" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D11" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" s="65">
+        <v>8</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="66">
+        <v>9</v>
+      </c>
+      <c r="O11" s="28">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="P11" s="28">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q11" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="28">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15">
-      <c r="A12" s="34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A12" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="B12" s="31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C12" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D12" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" s="67">
+        <v>9</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="68">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q12" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R12" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" s="31">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15">
-      <c r="A13" s="30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A13" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D13" s="31" t="str">
+      <c r="D13" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="30" t="str">
+      <c r="E13" s="65"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P13" s="30" t="str">
+      <c r="P13" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="Q13" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R13" s="31" t="str">
+      <c r="R13" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
-      <c r="A14" s="34" t="str">
+    <row r="14" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C14" s="34" t="str">
+      <c r="C14" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="34" t="str">
+      <c r="E14" s="67"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P14" s="34" t="str">
+      <c r="P14" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q14" s="34" t="str">
+      <c r="Q14" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R14" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
-      <c r="A15" s="30" t="str">
+    <row r="15" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A15" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D15" s="31" t="str">
+      <c r="D15" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="30" t="str">
+      <c r="E15" s="65"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R15" s="31" t="str">
+      <c r="R15" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
-      <c r="A16" s="34" t="str">
+    <row r="16" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="34" t="str">
+      <c r="B16" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C16" s="34" t="str">
+      <c r="C16" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="34" t="str">
+      <c r="E16" s="67"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P16" s="34" t="str">
+      <c r="P16" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q16" s="34" t="str">
+      <c r="Q16" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R16" s="35" t="str">
+      <c r="R16" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15">
-      <c r="A17" s="30" t="str">
+    <row r="17" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A17" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D17" s="31" t="str">
+      <c r="D17" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="30" t="str">
+      <c r="E17" s="65"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R17" s="31" t="str">
+      <c r="R17" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15">
-      <c r="A18" s="34" t="str">
+    <row r="18" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="str">
         <f t="shared" ref="A18:A31" si="8">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="B18" s="34" t="str">
+      <c r="B18" s="31" t="str">
         <f t="shared" ref="B18:B31" si="9">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="34" t="str">
+      <c r="C18" s="31" t="str">
         <f t="shared" ref="C18:C31" si="10">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="31" t="str">
         <f t="shared" ref="D18:D31" si="11">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
         <v/>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="34" t="str">
+      <c r="E18" s="67"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P18" s="34" t="str">
+      <c r="P18" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q18" s="34" t="str">
+      <c r="Q18" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15">
-      <c r="A19" s="30" t="str">
+    <row r="19" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A19" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B19" s="30" t="str">
+      <c r="B19" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D19" s="31" t="str">
+      <c r="D19" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="30" t="str">
+      <c r="E19" s="65"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R19" s="31" t="str">
+      <c r="R19" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15">
-      <c r="A20" s="34" t="str">
+    <row r="20" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B20" s="34" t="str">
+      <c r="B20" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C20" s="34" t="str">
+      <c r="C20" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D20" s="35" t="str">
+      <c r="D20" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="34" t="str">
+      <c r="E20" s="67"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P20" s="34" t="str">
+      <c r="P20" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q20" s="34" t="str">
+      <c r="Q20" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R20" s="35" t="str">
+      <c r="R20" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15">
-      <c r="A21" s="30" t="str">
+    <row r="21" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A21" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B21" s="30" t="str">
+      <c r="B21" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="30" t="str">
+      <c r="E21" s="65"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R21" s="31" t="str">
+      <c r="R21" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15">
-      <c r="A22" s="34" t="str">
+    <row r="22" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B22" s="34" t="str">
+      <c r="B22" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C22" s="34" t="str">
+      <c r="C22" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D22" s="35" t="str">
+      <c r="D22" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="34" t="str">
+      <c r="E22" s="67"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P22" s="34" t="str">
+      <c r="P22" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q22" s="34" t="str">
+      <c r="Q22" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15">
-      <c r="A23" s="30" t="str">
+    <row r="23" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A23" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D23" s="31" t="str">
+      <c r="D23" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="30" t="str">
+      <c r="E23" s="65"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R23" s="31" t="str">
+      <c r="R23" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15">
-      <c r="A24" s="34" t="str">
+    <row r="24" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B24" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C24" s="34" t="str">
+      <c r="C24" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D24" s="35" t="str">
+      <c r="D24" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="34" t="str">
+      <c r="E24" s="67"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P24" s="34" t="str">
+      <c r="P24" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q24" s="34" t="str">
+      <c r="Q24" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R24" s="35" t="str">
+      <c r="R24" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15">
-      <c r="A25" s="30" t="str">
+    <row r="25" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A25" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D25" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="30" t="str">
+      <c r="E25" s="65"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R25" s="31" t="str">
+      <c r="R25" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="34" t="str">
+    <row r="26" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B26" s="34" t="str">
+      <c r="B26" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C26" s="34" t="str">
+      <c r="C26" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="34" t="str">
+      <c r="E26" s="67"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P26" s="34" t="str">
+      <c r="P26" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q26" s="34" t="str">
+      <c r="Q26" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R26" s="35" t="str">
+      <c r="R26" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15">
-      <c r="A27" s="30" t="str">
+    <row r="27" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A27" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C27" s="30" t="str">
+      <c r="C27" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D27" s="31" t="str">
+      <c r="D27" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="30" t="str">
+      <c r="E27" s="65"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R27" s="31" t="str">
+      <c r="R27" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15">
-      <c r="A28" s="34" t="str">
+    <row r="28" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B28" s="34" t="str">
+      <c r="B28" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C28" s="34" t="str">
+      <c r="C28" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D28" s="35" t="str">
+      <c r="D28" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="34" t="str">
+      <c r="E28" s="67"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P28" s="34" t="str">
+      <c r="P28" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q28" s="34" t="str">
+      <c r="Q28" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R28" s="35" t="str">
+      <c r="R28" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15">
-      <c r="A29" s="30" t="str">
+    <row r="29" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A29" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C29" s="30" t="str">
+      <c r="C29" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D29" s="31" t="str">
+      <c r="D29" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="30" t="str">
+      <c r="E29" s="65"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q29" s="30" t="str">
+      <c r="Q29" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R29" s="31" t="str">
+      <c r="R29" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15">
-      <c r="A30" s="34" t="str">
+    <row r="30" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B30" s="34" t="str">
+      <c r="B30" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C30" s="34" t="str">
+      <c r="C30" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D30" s="35" t="str">
+      <c r="D30" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="34" t="str">
+      <c r="E30" s="67"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P30" s="34" t="str">
+      <c r="P30" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q30" s="34" t="str">
+      <c r="Q30" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R30" s="35" t="str">
+      <c r="R30" s="31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15">
-      <c r="A31" s="30" t="str">
+    <row r="31" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B31" s="30" t="str">
+      <c r="B31" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C31" s="30" t="str">
+      <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D31" s="31" t="str">
+      <c r="D31" s="28" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="30" t="str">
+      <c r="E31" s="65"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P31" s="30" t="str">
+      <c r="P31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q31" s="30" t="str">
+      <c r="Q31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R31" s="31" t="str">
+      <c r="R31" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15">
-      <c r="F32" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+    <row r="32" spans="1:18" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="F32" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3157,6 +3185,7 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="F32:M32"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="F3:M31">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>1</formula>
@@ -3192,141 +3221,141 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="46" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="46" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="46" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="46" customWidth="1"/>
+    <col min="1" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="42" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="42" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="45" customFormat="1" ht="15">
-      <c r="A1" s="47" t="str">
+    <row r="1" spans="1:17" s="41" customFormat="1" ht="15.3" x14ac:dyDescent="0.5">
+      <c r="A1" s="43" t="str">
         <f>状态转换真值表!A2</f>
         <v>S3</v>
       </c>
-      <c r="B1" s="47" t="str">
+      <c r="B1" s="43" t="str">
         <f>状态转换真值表!B2</f>
         <v>S2</v>
       </c>
-      <c r="C1" s="47" t="str">
+      <c r="C1" s="43" t="str">
         <f>状态转换真值表!C2</f>
         <v>S1</v>
       </c>
-      <c r="D1" s="48" t="str">
+      <c r="D1" s="44" t="str">
         <f>状态转换真值表!D2</f>
         <v>S0</v>
       </c>
-      <c r="E1" s="49" t="str">
+      <c r="E1" s="45" t="str">
         <f>状态转换真值表!F2</f>
         <v>In1</v>
       </c>
-      <c r="F1" s="47" t="str">
+      <c r="F1" s="43" t="str">
         <f>状态转换真值表!G2</f>
         <v>In2</v>
       </c>
-      <c r="G1" s="47" t="str">
+      <c r="G1" s="43" t="str">
         <f>状态转换真值表!H2</f>
         <v>In3</v>
       </c>
-      <c r="H1" s="47" t="str">
+      <c r="H1" s="43" t="str">
         <f>状态转换真值表!I2</f>
         <v>In4</v>
       </c>
-      <c r="I1" s="47" t="str">
+      <c r="I1" s="43" t="str">
         <f>状态转换真值表!J2</f>
         <v>In5</v>
       </c>
-      <c r="J1" s="47" t="str">
+      <c r="J1" s="43" t="str">
         <f>状态转换真值表!K2</f>
         <v>In6</v>
       </c>
-      <c r="K1" s="47" t="str">
+      <c r="K1" s="43" t="str">
         <f>状态转换真值表!L2</f>
         <v>In7</v>
       </c>
-      <c r="L1" s="59" t="str">
+      <c r="L1" s="55" t="str">
         <f>状态转换真值表!M2</f>
         <v>In8</v>
       </c>
-      <c r="M1" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="91" t="str">
+      <c r="M1" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="69" t="str">
         <f>状态转换真值表!O2</f>
         <v>N3</v>
       </c>
-      <c r="O1" s="91" t="str">
+      <c r="O1" s="69" t="str">
         <f>状态转换真值表!P2</f>
         <v>N2</v>
       </c>
-      <c r="P1" s="91" t="str">
+      <c r="P1" s="69" t="str">
         <f>状态转换真值表!Q2</f>
         <v>N1</v>
       </c>
-      <c r="Q1" s="91" t="str">
+      <c r="Q1" s="69" t="str">
         <f>状态转换真值表!R2</f>
         <v>N0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25">
-      <c r="A2" s="50" t="str">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="46" t="str">
         <f>IF(状态转换真值表!A3=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A3=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="46" t="str">
         <f>IF(状态转换真值表!B3=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B3=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C2" s="50" t="str">
+      <c r="C2" s="46" t="str">
         <f>IF(状态转换真值表!C3=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C3=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D2" s="51" t="str">
+      <c r="D2" s="47" t="str">
         <f>IF(状态转换真值表!D3=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D3=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="E2" s="52" t="str">
+      <c r="E2" s="48" t="str">
         <f>IF(状态转换真值表!F3&lt;&gt;"",IF(状态转换真值表!F3=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F3=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
-        <v>In1&amp;</v>
-      </c>
-      <c r="F2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="49" t="str">
         <f>IF(状态转换真值表!G3&lt;&gt;"",IF(状态转换真值表!G3=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G3=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
-        <v>In2&amp;</v>
-      </c>
-      <c r="G2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="49" t="str">
         <f>IF(状态转换真值表!H3&lt;&gt;"",IF(状态转换真值表!H3=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H3=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
-        <v>In3&amp;</v>
-      </c>
-      <c r="H2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="49" t="str">
         <f>IF(状态转换真值表!I3&lt;&gt;"",IF(状态转换真值表!I3=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I3=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
-        <v>~In4&amp;</v>
-      </c>
-      <c r="I2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="49" t="str">
         <f>IF(状态转换真值表!J3&lt;&gt;"",IF(状态转换真值表!J3=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J3=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
-        <v>In5&amp;</v>
-      </c>
-      <c r="J2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="49" t="str">
         <f>IF(状态转换真值表!K3&lt;&gt;"",IF(状态转换真值表!K3=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K3=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
-        <v>~In6&amp;</v>
-      </c>
-      <c r="K2" s="53" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="49" t="str">
         <f>IF(状态转换真值表!L3&lt;&gt;"",IF(状态转换真值表!L3=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L3=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L2" s="61" t="str">
+      <c r="L2" s="57" t="str">
         <f>IF(状态转换真值表!M3&lt;&gt;"",IF(状态转换真值表!M3=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M3=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M2" s="62" t="str">
+      <c r="M2" s="58" t="str">
         <f>IF(LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))=0,"",LEFT(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2),LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))-1))</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0&amp;In1&amp;In2&amp;In3&amp;~In4&amp;In5&amp;~In6</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N2" s="17" t="str">
         <f>IF(状态转换真值表!O3=1,$M2&amp;"+","")</f>
@@ -3342,61 +3371,61 @@
       </c>
       <c r="Q2" s="17" t="str">
         <f>IF(状态转换真值表!R3=1,$M2&amp;"+","")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0&amp;In1&amp;In2&amp;In3&amp;~In4&amp;In5&amp;~In6+</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="50" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="46" t="str">
         <f>IF(状态转换真值表!A4=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A4=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(状态转换真值表!B4=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B4=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C3" s="54" t="str">
+      <c r="C3" s="50" t="str">
         <f>IF(状态转换真值表!C4=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C4=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D3" s="55" t="str">
+      <c r="D3" s="51" t="str">
         <f>IF(状态转换真值表!D4=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D4=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E3" s="56" t="str">
+      <c r="E3" s="52" t="str">
         <f>IF(状态转换真值表!F4&lt;&gt;"",IF(状态转换真值表!F4=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F4=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
-        <v>In1&amp;</v>
-      </c>
-      <c r="F3" s="54" t="str">
+        <v/>
+      </c>
+      <c r="F3" s="50" t="str">
         <f>IF(状态转换真值表!G4&lt;&gt;"",IF(状态转换真值表!G4=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G4=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G3" s="54" t="str">
+      <c r="G3" s="50" t="str">
         <f>IF(状态转换真值表!H4&lt;&gt;"",IF(状态转换真值表!H4=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H4=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
-        <v>In3&amp;</v>
-      </c>
-      <c r="H3" s="54" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="50" t="str">
         <f>IF(状态转换真值表!I4&lt;&gt;"",IF(状态转换真值表!I4=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I4=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
-        <v>~In4&amp;</v>
-      </c>
-      <c r="I3" s="54" t="str">
+        <v/>
+      </c>
+      <c r="I3" s="50" t="str">
         <f>IF(状态转换真值表!J4&lt;&gt;"",IF(状态转换真值表!J4=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J4=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J3" s="54" t="str">
+      <c r="J3" s="50" t="str">
         <f>IF(状态转换真值表!K4&lt;&gt;"",IF(状态转换真值表!K4=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K4=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K3" s="54" t="str">
+      <c r="K3" s="50" t="str">
         <f>IF(状态转换真值表!L4&lt;&gt;"",IF(状态转换真值表!L4=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L4=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L3" s="63" t="str">
+      <c r="L3" s="59" t="str">
         <f>IF(状态转换真值表!M4&lt;&gt;"",IF(状态转换真值表!M4=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M4=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M3" s="62" t="str">
+      <c r="M3" s="58" t="str">
         <f t="shared" ref="M3:M30" si="0">IF(LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))=0,"",LEFT(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3),LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))-1))</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;In1&amp;In3&amp;~In4</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N3" s="18" t="str">
         <f>IF(状态转换真值表!O4=1,$M3&amp;"+","")</f>
@@ -3408,65 +3437,65 @@
       </c>
       <c r="P3" s="18" t="str">
         <f>IF(状态转换真值表!Q4=1,$M3&amp;"+","")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;In1&amp;In3&amp;~In4+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q3" s="18" t="str">
         <f>IF(状态转换真值表!R4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="50" t="str">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="46" t="str">
         <f>IF(状态转换真值表!A5=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A5=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B4" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B4" s="50" t="str">
         <f>IF(状态转换真值表!B5=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B5=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C4" s="54" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C4" s="50" t="str">
         <f>IF(状态转换真值表!C5=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C5=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D4" s="55" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D4" s="51" t="str">
         <f>IF(状态转换真值表!D5=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D5=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E4" s="56" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E4" s="52" t="str">
         <f>IF(状态转换真值表!F5&lt;&gt;"",IF(状态转换真值表!F5=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F5=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(状态转换真值表!G5&lt;&gt;"",IF(状态转换真值表!G5=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G5=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G4" s="54" t="str">
+      <c r="G4" s="50" t="str">
         <f>IF(状态转换真值表!H5&lt;&gt;"",IF(状态转换真值表!H5=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H5=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H4" s="54" t="str">
+      <c r="H4" s="50" t="str">
         <f>IF(状态转换真值表!I5&lt;&gt;"",IF(状态转换真值表!I5=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I5=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I4" s="54" t="str">
+      <c r="I4" s="50" t="str">
         <f>IF(状态转换真值表!J5&lt;&gt;"",IF(状态转换真值表!J5=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J5=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J4" s="54" t="str">
+      <c r="J4" s="50" t="str">
         <f>IF(状态转换真值表!K5&lt;&gt;"",IF(状态转换真值表!K5=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K5=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K4" s="54" t="str">
+      <c r="K4" s="50" t="str">
         <f>IF(状态转换真值表!L5&lt;&gt;"",IF(状态转换真值表!L5=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L5=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L4" s="63" t="str">
+      <c r="L4" s="59" t="str">
         <f>IF(状态转换真值表!M5&lt;&gt;"",IF(状态转换真值表!M5=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M5=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M4" s="62" t="str">
+      <c r="M4" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N4" s="18" t="str">
         <f>IF(状态转换真值表!O5=1,$M4&amp;"+","")</f>
@@ -3478,65 +3507,65 @@
       </c>
       <c r="P4" s="18" t="str">
         <f>IF(状态转换真值表!Q5=1,$M4&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q4" s="18" t="str">
         <f>IF(状态转换真值表!R5=1,$M4&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="50" t="str">
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="46" t="str">
         <f>IF(状态转换真值表!A6=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A6=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B5" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B5" s="50" t="str">
         <f>IF(状态转换真值表!B6=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B6=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C5" s="54" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C5" s="50" t="str">
         <f>IF(状态转换真值表!C6=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C6=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D5" s="55" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D5" s="51" t="str">
         <f>IF(状态转换真值表!D6=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D6=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E5" s="56" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E5" s="52" t="str">
         <f>IF(状态转换真值表!F6&lt;&gt;"",IF(状态转换真值表!F6=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F6=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F5" s="54" t="str">
+      <c r="F5" s="50" t="str">
         <f>IF(状态转换真值表!G6&lt;&gt;"",IF(状态转换真值表!G6=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G6=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G5" s="54" t="str">
+      <c r="G5" s="50" t="str">
         <f>IF(状态转换真值表!H6&lt;&gt;"",IF(状态转换真值表!H6=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H6=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H5" s="54" t="str">
+      <c r="H5" s="50" t="str">
         <f>IF(状态转换真值表!I6&lt;&gt;"",IF(状态转换真值表!I6=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I6=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I5" s="54" t="str">
+      <c r="I5" s="50" t="str">
         <f>IF(状态转换真值表!J6&lt;&gt;"",IF(状态转换真值表!J6=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J6=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J5" s="54" t="str">
+      <c r="J5" s="50" t="str">
         <f>IF(状态转换真值表!K6&lt;&gt;"",IF(状态转换真值表!K6=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K6=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K5" s="54" t="str">
+      <c r="K5" s="50" t="str">
         <f>IF(状态转换真值表!L6&lt;&gt;"",IF(状态转换真值表!L6=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L6=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L5" s="63" t="str">
+      <c r="L5" s="59" t="str">
         <f>IF(状态转换真值表!M6&lt;&gt;"",IF(状态转换真值表!M6=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M6=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M5" s="62" t="str">
+      <c r="M5" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N5" s="18" t="str">
         <f>IF(状态转换真值表!O6=1,$M5&amp;"+","")</f>
@@ -3544,7 +3573,7 @@
       </c>
       <c r="O5" s="18" t="str">
         <f>IF(状态转换真值表!P6=1,$M5&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P5" s="18" t="str">
         <f>IF(状态转换真值表!Q6=1,$M5&amp;"+","")</f>
@@ -3555,58 +3584,58 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="50" t="str">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="46" t="str">
         <f>IF(状态转换真值表!A7=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A7=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B6" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B6" s="50" t="str">
         <f>IF(状态转换真值表!B7=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B7=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C6" s="54" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C6" s="50" t="str">
         <f>IF(状态转换真值表!C7=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C7=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D6" s="55" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D6" s="51" t="str">
         <f>IF(状态转换真值表!D7=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D7=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E6" s="56" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E6" s="52" t="str">
         <f>IF(状态转换真值表!F7&lt;&gt;"",IF(状态转换真值表!F7=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F7=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F6" s="54" t="str">
+      <c r="F6" s="50" t="str">
         <f>IF(状态转换真值表!G7&lt;&gt;"",IF(状态转换真值表!G7=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G7=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G6" s="54" t="str">
+      <c r="G6" s="50" t="str">
         <f>IF(状态转换真值表!H7&lt;&gt;"",IF(状态转换真值表!H7=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H7=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H6" s="54" t="str">
+      <c r="H6" s="50" t="str">
         <f>IF(状态转换真值表!I7&lt;&gt;"",IF(状态转换真值表!I7=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I7=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I6" s="54" t="str">
+      <c r="I6" s="50" t="str">
         <f>IF(状态转换真值表!J7&lt;&gt;"",IF(状态转换真值表!J7=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J7=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J6" s="54" t="str">
+      <c r="J6" s="50" t="str">
         <f>IF(状态转换真值表!K7&lt;&gt;"",IF(状态转换真值表!K7=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K7=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K6" s="54" t="str">
+      <c r="K6" s="50" t="str">
         <f>IF(状态转换真值表!L7&lt;&gt;"",IF(状态转换真值表!L7=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L7=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L6" s="63" t="str">
+      <c r="L6" s="59" t="str">
         <f>IF(状态转换真值表!M7&lt;&gt;"",IF(状态转换真值表!M7=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M7=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M6" s="62" t="str">
+      <c r="M6" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N6" s="18" t="str">
         <f>IF(状态转换真值表!O7=1,$M6&amp;"+","")</f>
@@ -3614,7 +3643,7 @@
       </c>
       <c r="O6" s="18" t="str">
         <f>IF(状态转换真值表!P7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="P6" s="18" t="str">
         <f>IF(状态转换真值表!Q7=1,$M6&amp;"+","")</f>
@@ -3622,61 +3651,61 @@
       </c>
       <c r="Q6" s="18" t="str">
         <f>IF(状态转换真值表!R7=1,$M6&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="50" t="str">
+        <v>~S3&amp;S2&amp;~S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="46" t="str">
         <f>IF(状态转换真值表!A8=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A8=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B7" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B7" s="50" t="str">
         <f>IF(状态转换真值表!B8=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B8=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C7" s="54" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C7" s="50" t="str">
         <f>IF(状态转换真值表!C8=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C8=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D7" s="55" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D7" s="51" t="str">
         <f>IF(状态转换真值表!D8=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D8=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E7" s="56" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E7" s="52" t="str">
         <f>IF(状态转换真值表!F8&lt;&gt;"",IF(状态转换真值表!F8=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F8=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F7" s="54" t="str">
+      <c r="F7" s="50" t="str">
         <f>IF(状态转换真值表!G8&lt;&gt;"",IF(状态转换真值表!G8=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G8=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G7" s="54" t="str">
+      <c r="G7" s="50" t="str">
         <f>IF(状态转换真值表!H8&lt;&gt;"",IF(状态转换真值表!H8=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H8=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H7" s="54" t="str">
+      <c r="H7" s="50" t="str">
         <f>IF(状态转换真值表!I8&lt;&gt;"",IF(状态转换真值表!I8=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I8=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I7" s="54" t="str">
+      <c r="I7" s="50" t="str">
         <f>IF(状态转换真值表!J8&lt;&gt;"",IF(状态转换真值表!J8=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J8=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J7" s="54" t="str">
+      <c r="J7" s="50" t="str">
         <f>IF(状态转换真值表!K8&lt;&gt;"",IF(状态转换真值表!K8=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K8=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K7" s="54" t="str">
+      <c r="K7" s="50" t="str">
         <f>IF(状态转换真值表!L8&lt;&gt;"",IF(状态转换真值表!L8=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L8=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L7" s="63" t="str">
+      <c r="L7" s="59" t="str">
         <f>IF(状态转换真值表!M8&lt;&gt;"",IF(状态转换真值表!M8=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M8=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M7" s="62" t="str">
+      <c r="M7" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N7" s="18" t="str">
         <f>IF(状态转换真值表!O8=1,$M7&amp;"+","")</f>
@@ -3684,69 +3713,69 @@
       </c>
       <c r="O7" s="18" t="str">
         <f>IF(状态转换真值表!P8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P7" s="18" t="str">
         <f>IF(状态转换真值表!Q8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q7" s="18" t="str">
         <f>IF(状态转换真值表!R8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="50" t="str">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="46" t="str">
         <f>IF(状态转换真值表!A9=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A9=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B8" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B8" s="50" t="str">
         <f>IF(状态转换真值表!B9=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B9=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C8" s="54" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C8" s="50" t="str">
         <f>IF(状态转换真值表!C9=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C9=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D8" s="55" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D8" s="51" t="str">
         <f>IF(状态转换真值表!D9=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D9=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E8" s="56" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E8" s="52" t="str">
         <f>IF(状态转换真值表!F9&lt;&gt;"",IF(状态转换真值表!F9=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F9=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F8" s="54" t="str">
+      <c r="F8" s="50" t="str">
         <f>IF(状态转换真值表!G9&lt;&gt;"",IF(状态转换真值表!G9=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G9=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G8" s="54" t="str">
+      <c r="G8" s="50" t="str">
         <f>IF(状态转换真值表!H9&lt;&gt;"",IF(状态转换真值表!H9=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H9=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H8" s="54" t="str">
+      <c r="H8" s="50" t="str">
         <f>IF(状态转换真值表!I9&lt;&gt;"",IF(状态转换真值表!I9=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I9=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="54" t="str">
+      <c r="I8" s="50" t="str">
         <f>IF(状态转换真值表!J9&lt;&gt;"",IF(状态转换真值表!J9=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J9=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="54" t="str">
+      <c r="J8" s="50" t="str">
         <f>IF(状态转换真值表!K9&lt;&gt;"",IF(状态转换真值表!K9=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K9=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="54" t="str">
+      <c r="K8" s="50" t="str">
         <f>IF(状态转换真值表!L9&lt;&gt;"",IF(状态转换真值表!L9=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L9=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="63" t="str">
+      <c r="L8" s="59" t="str">
         <f>IF(状态转换真值表!M9&lt;&gt;"",IF(状态转换真值表!M9=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M9=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="62" t="str">
+      <c r="M8" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N8" s="18" t="str">
         <f>IF(状态转换真值表!O9=1,$M8&amp;"+","")</f>
@@ -3754,73 +3783,73 @@
       </c>
       <c r="O8" s="18" t="str">
         <f>IF(状态转换真值表!P9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="P8" s="18" t="str">
         <f>IF(状态转换真值表!Q9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f>IF(状态转换真值表!R9=1,$M8&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="50" t="str">
+        <v>~S3&amp;S2&amp;S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="46" t="str">
         <f>IF(状态转换真值表!A10=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A10=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B9" s="54" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B9" s="50" t="str">
         <f>IF(状态转换真值表!B10=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B10=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C9" s="54" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C9" s="50" t="str">
         <f>IF(状态转换真值表!C10=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C10=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D9" s="55" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D9" s="51" t="str">
         <f>IF(状态转换真值表!D10=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D10=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E9" s="56" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E9" s="52" t="str">
         <f>IF(状态转换真值表!F10&lt;&gt;"",IF(状态转换真值表!F10=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F10=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F9" s="54" t="str">
+      <c r="F9" s="50" t="str">
         <f>IF(状态转换真值表!G10&lt;&gt;"",IF(状态转换真值表!G10=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G10=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G9" s="54" t="str">
+      <c r="G9" s="50" t="str">
         <f>IF(状态转换真值表!H10&lt;&gt;"",IF(状态转换真值表!H10=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H10=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H9" s="54" t="str">
+      <c r="H9" s="50" t="str">
         <f>IF(状态转换真值表!I10&lt;&gt;"",IF(状态转换真值表!I10=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I10=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I9" s="54" t="str">
+      <c r="I9" s="50" t="str">
         <f>IF(状态转换真值表!J10&lt;&gt;"",IF(状态转换真值表!J10=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J10=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="54" t="str">
+      <c r="J9" s="50" t="str">
         <f>IF(状态转换真值表!K10&lt;&gt;"",IF(状态转换真值表!K10=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K10=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="54" t="str">
+      <c r="K9" s="50" t="str">
         <f>IF(状态转换真值表!L10&lt;&gt;"",IF(状态转换真值表!L10=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L10=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="63" t="str">
+      <c r="L9" s="59" t="str">
         <f>IF(状态转换真值表!M10&lt;&gt;"",IF(状态转换真值表!M10=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M10=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="62" t="str">
+      <c r="M9" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0</v>
       </c>
       <c r="N9" s="18" t="str">
         <f>IF(状态转换真值表!O10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O9" s="18" t="str">
         <f>IF(状态转换真值表!P10=1,$M9&amp;"+","")</f>
@@ -3835,62 +3864,62 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="46" t="str">
         <f>IF(状态转换真值表!A11=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A11=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B10" s="54" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B10" s="50" t="str">
         <f>IF(状态转换真值表!B11=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B11=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C10" s="54" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C10" s="50" t="str">
         <f>IF(状态转换真值表!C11=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C11=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D10" s="55" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D10" s="51" t="str">
         <f>IF(状态转换真值表!D11=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D11=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E10" s="56" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E10" s="52" t="str">
         <f>IF(状态转换真值表!F11&lt;&gt;"",IF(状态转换真值表!F11=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F11=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F10" s="54" t="str">
+      <c r="F10" s="50" t="str">
         <f>IF(状态转换真值表!G11&lt;&gt;"",IF(状态转换真值表!G11=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G11=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G10" s="54" t="str">
+      <c r="G10" s="50" t="str">
         <f>IF(状态转换真值表!H11&lt;&gt;"",IF(状态转换真值表!H11=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H11=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H10" s="54" t="str">
+      <c r="H10" s="50" t="str">
         <f>IF(状态转换真值表!I11&lt;&gt;"",IF(状态转换真值表!I11=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I11=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I10" s="54" t="str">
+      <c r="I10" s="50" t="str">
         <f>IF(状态转换真值表!J11&lt;&gt;"",IF(状态转换真值表!J11=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J11=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="54" t="str">
+      <c r="J10" s="50" t="str">
         <f>IF(状态转换真值表!K11&lt;&gt;"",IF(状态转换真值表!K11=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K11=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="54" t="str">
+      <c r="K10" s="50" t="str">
         <f>IF(状态转换真值表!L11&lt;&gt;"",IF(状态转换真值表!L11=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L11=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="63" t="str">
+      <c r="L10" s="59" t="str">
         <f>IF(状态转换真值表!M11&lt;&gt;"",IF(状态转换真值表!M11=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M11=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="62" t="str">
+      <c r="M10" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N10" s="18" t="str">
         <f>IF(状态转换真值表!O11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="O10" s="18" t="str">
         <f>IF(状态转换真值表!P11=1,$M10&amp;"+","")</f>
@@ -3902,61 +3931,61 @@
       </c>
       <c r="Q10" s="18" t="str">
         <f>IF(状态转换真值表!R11=1,$M10&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="50" t="str">
+        <v>S3&amp;~S2&amp;~S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="46" t="str">
         <f>IF(状态转换真值表!A12=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A12=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B11" s="54" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B11" s="50" t="str">
         <f>IF(状态转换真值表!B12=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B12=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C11" s="54" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C11" s="50" t="str">
         <f>IF(状态转换真值表!C12=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C12=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D11" s="55" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D11" s="51" t="str">
         <f>IF(状态转换真值表!D12=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D12=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E11" s="56" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E11" s="52" t="str">
         <f>IF(状态转换真值表!F12&lt;&gt;"",IF(状态转换真值表!F12=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F12=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F11" s="54" t="str">
+      <c r="F11" s="50" t="str">
         <f>IF(状态转换真值表!G12&lt;&gt;"",IF(状态转换真值表!G12=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G12=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G11" s="54" t="str">
+      <c r="G11" s="50" t="str">
         <f>IF(状态转换真值表!H12&lt;&gt;"",IF(状态转换真值表!H12=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H12=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H11" s="54" t="str">
+      <c r="H11" s="50" t="str">
         <f>IF(状态转换真值表!I12&lt;&gt;"",IF(状态转换真值表!I12=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I12=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="54" t="str">
+      <c r="I11" s="50" t="str">
         <f>IF(状态转换真值表!J12&lt;&gt;"",IF(状态转换真值表!J12=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J12=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="54" t="str">
+      <c r="J11" s="50" t="str">
         <f>IF(状态转换真值表!K12&lt;&gt;"",IF(状态转换真值表!K12=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K12=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="54" t="str">
+      <c r="K11" s="50" t="str">
         <f>IF(状态转换真值表!L12&lt;&gt;"",IF(状态转换真值表!L12=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L12=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="63" t="str">
+      <c r="L11" s="59" t="str">
         <f>IF(状态转换真值表!M12&lt;&gt;"",IF(状态转换真值表!M12=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M12=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="62" t="str">
+      <c r="M11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N11" s="18" t="str">
         <f>IF(状态转换真值表!O12=1,$M11&amp;"+","")</f>
@@ -3975,56 +4004,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="50" t="str">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="46" t="str">
         <f>IF(状态转换真值表!A13=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A13=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B12" s="54" t="str">
+      <c r="B12" s="50" t="str">
         <f>IF(状态转换真值表!B13=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B13=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C12" s="54" t="str">
+      <c r="C12" s="50" t="str">
         <f>IF(状态转换真值表!C13=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C13=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D12" s="55" t="str">
+      <c r="D12" s="51" t="str">
         <f>IF(状态转换真值表!D13=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D13=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E12" s="56" t="str">
+      <c r="E12" s="52" t="str">
         <f>IF(状态转换真值表!F13&lt;&gt;"",IF(状态转换真值表!F13=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F13=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F12" s="54" t="str">
+      <c r="F12" s="50" t="str">
         <f>IF(状态转换真值表!G13&lt;&gt;"",IF(状态转换真值表!G13=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G13=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G12" s="54" t="str">
+      <c r="G12" s="50" t="str">
         <f>IF(状态转换真值表!H13&lt;&gt;"",IF(状态转换真值表!H13=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H13=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H12" s="54" t="str">
+      <c r="H12" s="50" t="str">
         <f>IF(状态转换真值表!I13&lt;&gt;"",IF(状态转换真值表!I13=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I13=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="54" t="str">
+      <c r="I12" s="50" t="str">
         <f>IF(状态转换真值表!J13&lt;&gt;"",IF(状态转换真值表!J13=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J13=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J12" s="54" t="str">
+      <c r="J12" s="50" t="str">
         <f>IF(状态转换真值表!K13&lt;&gt;"",IF(状态转换真值表!K13=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K13=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="54" t="str">
+      <c r="K12" s="50" t="str">
         <f>IF(状态转换真值表!L13&lt;&gt;"",IF(状态转换真值表!L13=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L13=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="63" t="str">
+      <c r="L12" s="59" t="str">
         <f>IF(状态转换真值表!M13&lt;&gt;"",IF(状态转换真值表!M13=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M13=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="62" t="str">
+      <c r="M12" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4045,56 +4074,56 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="50" t="str">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="46" t="str">
         <f>IF(状态转换真值表!A14=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A14=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B13" s="54" t="str">
+      <c r="B13" s="50" t="str">
         <f>IF(状态转换真值表!B14=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B14=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C13" s="54" t="str">
+      <c r="C13" s="50" t="str">
         <f>IF(状态转换真值表!C14=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C14=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D13" s="55" t="str">
+      <c r="D13" s="51" t="str">
         <f>IF(状态转换真值表!D14=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D14=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E13" s="56" t="str">
+      <c r="E13" s="52" t="str">
         <f>IF(状态转换真值表!F14&lt;&gt;"",IF(状态转换真值表!F14=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F14=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F13" s="54" t="str">
+      <c r="F13" s="50" t="str">
         <f>IF(状态转换真值表!G14&lt;&gt;"",IF(状态转换真值表!G14=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G14=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G13" s="54" t="str">
+      <c r="G13" s="50" t="str">
         <f>IF(状态转换真值表!H14&lt;&gt;"",IF(状态转换真值表!H14=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H14=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H13" s="54" t="str">
+      <c r="H13" s="50" t="str">
         <f>IF(状态转换真值表!I14&lt;&gt;"",IF(状态转换真值表!I14=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I14=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="54" t="str">
+      <c r="I13" s="50" t="str">
         <f>IF(状态转换真值表!J14&lt;&gt;"",IF(状态转换真值表!J14=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J14=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="54" t="str">
+      <c r="J13" s="50" t="str">
         <f>IF(状态转换真值表!K14&lt;&gt;"",IF(状态转换真值表!K14=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K14=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="54" t="str">
+      <c r="K13" s="50" t="str">
         <f>IF(状态转换真值表!L14&lt;&gt;"",IF(状态转换真值表!L14=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L14=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="63" t="str">
+      <c r="L13" s="59" t="str">
         <f>IF(状态转换真值表!M14&lt;&gt;"",IF(状态转换真值表!M14=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M14=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="62" t="str">
+      <c r="M13" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4115,56 +4144,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="50" t="str">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="46" t="str">
         <f>IF(状态转换真值表!A15=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A15=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B14" s="54" t="str">
+      <c r="B14" s="50" t="str">
         <f>IF(状态转换真值表!B15=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B15=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="50" t="str">
         <f>IF(状态转换真值表!C15=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C15=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D14" s="55" t="str">
+      <c r="D14" s="51" t="str">
         <f>IF(状态转换真值表!D15=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D15=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E14" s="56" t="str">
+      <c r="E14" s="52" t="str">
         <f>IF(状态转换真值表!F15&lt;&gt;"",IF(状态转换真值表!F15=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F15=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F14" s="54" t="str">
+      <c r="F14" s="50" t="str">
         <f>IF(状态转换真值表!G15&lt;&gt;"",IF(状态转换真值表!G15=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G15=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G14" s="54" t="str">
+      <c r="G14" s="50" t="str">
         <f>IF(状态转换真值表!H15&lt;&gt;"",IF(状态转换真值表!H15=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H15=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H14" s="54" t="str">
+      <c r="H14" s="50" t="str">
         <f>IF(状态转换真值表!I15&lt;&gt;"",IF(状态转换真值表!I15=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I15=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I14" s="54" t="str">
+      <c r="I14" s="50" t="str">
         <f>IF(状态转换真值表!J15&lt;&gt;"",IF(状态转换真值表!J15=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J15=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="54" t="str">
+      <c r="J14" s="50" t="str">
         <f>IF(状态转换真值表!K15&lt;&gt;"",IF(状态转换真值表!K15=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K15=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="54" t="str">
+      <c r="K14" s="50" t="str">
         <f>IF(状态转换真值表!L15&lt;&gt;"",IF(状态转换真值表!L15=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L15=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="63" t="str">
+      <c r="L14" s="59" t="str">
         <f>IF(状态转换真值表!M15&lt;&gt;"",IF(状态转换真值表!M15=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M15=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="62" t="str">
+      <c r="M14" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4185,56 +4214,56 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="50" t="str">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="46" t="str">
         <f>IF(状态转换真值表!A16=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A16=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B15" s="54" t="str">
+      <c r="B15" s="50" t="str">
         <f>IF(状态转换真值表!B16=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B16=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C15" s="54" t="str">
+      <c r="C15" s="50" t="str">
         <f>IF(状态转换真值表!C16=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C16=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D15" s="55" t="str">
+      <c r="D15" s="51" t="str">
         <f>IF(状态转换真值表!D16=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D16=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E15" s="56" t="str">
+      <c r="E15" s="52" t="str">
         <f>IF(状态转换真值表!F16&lt;&gt;"",IF(状态转换真值表!F16=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F16=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F15" s="54" t="str">
+      <c r="F15" s="50" t="str">
         <f>IF(状态转换真值表!G16&lt;&gt;"",IF(状态转换真值表!G16=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G16=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G15" s="54" t="str">
+      <c r="G15" s="50" t="str">
         <f>IF(状态转换真值表!H16&lt;&gt;"",IF(状态转换真值表!H16=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H16=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H15" s="54" t="str">
+      <c r="H15" s="50" t="str">
         <f>IF(状态转换真值表!I16&lt;&gt;"",IF(状态转换真值表!I16=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I16=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I15" s="54" t="str">
+      <c r="I15" s="50" t="str">
         <f>IF(状态转换真值表!J16&lt;&gt;"",IF(状态转换真值表!J16=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J16=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="54" t="str">
+      <c r="J15" s="50" t="str">
         <f>IF(状态转换真值表!K16&lt;&gt;"",IF(状态转换真值表!K16=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K16=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="54" t="str">
+      <c r="K15" s="50" t="str">
         <f>IF(状态转换真值表!L16&lt;&gt;"",IF(状态转换真值表!L16=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L16=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="63" t="str">
+      <c r="L15" s="59" t="str">
         <f>IF(状态转换真值表!M16&lt;&gt;"",IF(状态转换真值表!M16=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M16=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="62" t="str">
+      <c r="M15" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4255,56 +4284,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="50" t="str">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="46" t="str">
         <f>IF(状态转换真值表!A17=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A17=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B16" s="54" t="str">
+      <c r="B16" s="50" t="str">
         <f>IF(状态转换真值表!B17=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B17=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C16" s="54" t="str">
+      <c r="C16" s="50" t="str">
         <f>IF(状态转换真值表!C17=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C17=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D16" s="55" t="str">
+      <c r="D16" s="51" t="str">
         <f>IF(状态转换真值表!D17=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D17=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E16" s="56" t="str">
+      <c r="E16" s="52" t="str">
         <f>IF(状态转换真值表!F17&lt;&gt;"",IF(状态转换真值表!F17=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F17=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F16" s="54" t="str">
+      <c r="F16" s="50" t="str">
         <f>IF(状态转换真值表!G17&lt;&gt;"",IF(状态转换真值表!G17=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G17=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G16" s="54" t="str">
+      <c r="G16" s="50" t="str">
         <f>IF(状态转换真值表!H17&lt;&gt;"",IF(状态转换真值表!H17=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H17=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H16" s="54" t="str">
+      <c r="H16" s="50" t="str">
         <f>IF(状态转换真值表!I17&lt;&gt;"",IF(状态转换真值表!I17=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I17=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I16" s="54" t="str">
+      <c r="I16" s="50" t="str">
         <f>IF(状态转换真值表!J17&lt;&gt;"",IF(状态转换真值表!J17=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J17=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="54" t="str">
+      <c r="J16" s="50" t="str">
         <f>IF(状态转换真值表!K17&lt;&gt;"",IF(状态转换真值表!K17=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K17=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="54" t="str">
+      <c r="K16" s="50" t="str">
         <f>IF(状态转换真值表!L17&lt;&gt;"",IF(状态转换真值表!L17=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L17=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="63" t="str">
+      <c r="L16" s="59" t="str">
         <f>IF(状态转换真值表!M17&lt;&gt;"",IF(状态转换真值表!M17=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M17=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="62" t="str">
+      <c r="M16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4325,56 +4354,56 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="50" t="str">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A17" s="46" t="str">
         <f>IF(状态转换真值表!A18=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A18=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B17" s="54" t="str">
+      <c r="B17" s="50" t="str">
         <f>IF(状态转换真值表!B18=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B18=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C17" s="54" t="str">
+      <c r="C17" s="50" t="str">
         <f>IF(状态转换真值表!C18=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C18=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D17" s="55" t="str">
+      <c r="D17" s="51" t="str">
         <f>IF(状态转换真值表!D18=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D18=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E17" s="56" t="str">
+      <c r="E17" s="52" t="str">
         <f>IF(状态转换真值表!F18&lt;&gt;"",IF(状态转换真值表!F18=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F18=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F17" s="54" t="str">
+      <c r="F17" s="50" t="str">
         <f>IF(状态转换真值表!G18&lt;&gt;"",IF(状态转换真值表!G18=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G18=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G17" s="54" t="str">
+      <c r="G17" s="50" t="str">
         <f>IF(状态转换真值表!H18&lt;&gt;"",IF(状态转换真值表!H18=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H18=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H17" s="54" t="str">
+      <c r="H17" s="50" t="str">
         <f>IF(状态转换真值表!I18&lt;&gt;"",IF(状态转换真值表!I18=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I18=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="54" t="str">
+      <c r="I17" s="50" t="str">
         <f>IF(状态转换真值表!J18&lt;&gt;"",IF(状态转换真值表!J18=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J18=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="54" t="str">
+      <c r="J17" s="50" t="str">
         <f>IF(状态转换真值表!K18&lt;&gt;"",IF(状态转换真值表!K18=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K18=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="54" t="str">
+      <c r="K17" s="50" t="str">
         <f>IF(状态转换真值表!L18&lt;&gt;"",IF(状态转换真值表!L18=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L18=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="63" t="str">
+      <c r="L17" s="59" t="str">
         <f>IF(状态转换真值表!M18&lt;&gt;"",IF(状态转换真值表!M18=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M18=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="62" t="str">
+      <c r="M17" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4395,56 +4424,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="50" t="str">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A18" s="46" t="str">
         <f>IF(状态转换真值表!A19=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A19=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B18" s="54" t="str">
+      <c r="B18" s="50" t="str">
         <f>IF(状态转换真值表!B19=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B19=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C18" s="54" t="str">
+      <c r="C18" s="50" t="str">
         <f>IF(状态转换真值表!C19=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C19=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D18" s="55" t="str">
+      <c r="D18" s="51" t="str">
         <f>IF(状态转换真值表!D19=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D19=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E18" s="56" t="str">
+      <c r="E18" s="52" t="str">
         <f>IF(状态转换真值表!F19&lt;&gt;"",IF(状态转换真值表!F19=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F19=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F18" s="54" t="str">
+      <c r="F18" s="50" t="str">
         <f>IF(状态转换真值表!G19&lt;&gt;"",IF(状态转换真值表!G19=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G19=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G18" s="54" t="str">
+      <c r="G18" s="50" t="str">
         <f>IF(状态转换真值表!H19&lt;&gt;"",IF(状态转换真值表!H19=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H19=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H18" s="54" t="str">
+      <c r="H18" s="50" t="str">
         <f>IF(状态转换真值表!I19&lt;&gt;"",IF(状态转换真值表!I19=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I19=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="54" t="str">
+      <c r="I18" s="50" t="str">
         <f>IF(状态转换真值表!J19&lt;&gt;"",IF(状态转换真值表!J19=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J19=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="54" t="str">
+      <c r="J18" s="50" t="str">
         <f>IF(状态转换真值表!K19&lt;&gt;"",IF(状态转换真值表!K19=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K19=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="54" t="str">
+      <c r="K18" s="50" t="str">
         <f>IF(状态转换真值表!L19&lt;&gt;"",IF(状态转换真值表!L19=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L19=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="63" t="str">
+      <c r="L18" s="59" t="str">
         <f>IF(状态转换真值表!M19&lt;&gt;"",IF(状态转换真值表!M19=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M19=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="62" t="str">
+      <c r="M18" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4465,56 +4494,56 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="50" t="str">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A19" s="46" t="str">
         <f>IF(状态转换真值表!A20=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A20=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B19" s="54" t="str">
+      <c r="B19" s="50" t="str">
         <f>IF(状态转换真值表!B20=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B20=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C19" s="54" t="str">
+      <c r="C19" s="50" t="str">
         <f>IF(状态转换真值表!C20=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C20=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D19" s="55" t="str">
+      <c r="D19" s="51" t="str">
         <f>IF(状态转换真值表!D20=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D20=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E19" s="56" t="str">
+      <c r="E19" s="52" t="str">
         <f>IF(状态转换真值表!F20&lt;&gt;"",IF(状态转换真值表!F20=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F20=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F19" s="54" t="str">
+      <c r="F19" s="50" t="str">
         <f>IF(状态转换真值表!G20&lt;&gt;"",IF(状态转换真值表!G20=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G20=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G19" s="54" t="str">
+      <c r="G19" s="50" t="str">
         <f>IF(状态转换真值表!H20&lt;&gt;"",IF(状态转换真值表!H20=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H20=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H19" s="54" t="str">
+      <c r="H19" s="50" t="str">
         <f>IF(状态转换真值表!I20&lt;&gt;"",IF(状态转换真值表!I20=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I20=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I19" s="54" t="str">
+      <c r="I19" s="50" t="str">
         <f>IF(状态转换真值表!J20&lt;&gt;"",IF(状态转换真值表!J20=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J20=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J19" s="54" t="str">
+      <c r="J19" s="50" t="str">
         <f>IF(状态转换真值表!K20&lt;&gt;"",IF(状态转换真值表!K20=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K20=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K19" s="54" t="str">
+      <c r="K19" s="50" t="str">
         <f>IF(状态转换真值表!L20&lt;&gt;"",IF(状态转换真值表!L20=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L20=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L19" s="63" t="str">
+      <c r="L19" s="59" t="str">
         <f>IF(状态转换真值表!M20&lt;&gt;"",IF(状态转换真值表!M20=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M20=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M19" s="62" t="str">
+      <c r="M19" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4535,56 +4564,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="50" t="str">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A20" s="46" t="str">
         <f>IF(状态转换真值表!A21=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A21=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B20" s="54" t="str">
+      <c r="B20" s="50" t="str">
         <f>IF(状态转换真值表!B21=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B21=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C20" s="54" t="str">
+      <c r="C20" s="50" t="str">
         <f>IF(状态转换真值表!C21=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C21=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D20" s="55" t="str">
+      <c r="D20" s="51" t="str">
         <f>IF(状态转换真值表!D21=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D21=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E20" s="56" t="str">
+      <c r="E20" s="52" t="str">
         <f>IF(状态转换真值表!F21&lt;&gt;"",IF(状态转换真值表!F21=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F21=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F20" s="54" t="str">
+      <c r="F20" s="50" t="str">
         <f>IF(状态转换真值表!G21&lt;&gt;"",IF(状态转换真值表!G21=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G21=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G20" s="54" t="str">
+      <c r="G20" s="50" t="str">
         <f>IF(状态转换真值表!H21&lt;&gt;"",IF(状态转换真值表!H21=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H21=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H20" s="54" t="str">
+      <c r="H20" s="50" t="str">
         <f>IF(状态转换真值表!I21&lt;&gt;"",IF(状态转换真值表!I21=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I21=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I20" s="54" t="str">
+      <c r="I20" s="50" t="str">
         <f>IF(状态转换真值表!J21&lt;&gt;"",IF(状态转换真值表!J21=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J21=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J20" s="54" t="str">
+      <c r="J20" s="50" t="str">
         <f>IF(状态转换真值表!K21&lt;&gt;"",IF(状态转换真值表!K21=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K21=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K20" s="54" t="str">
+      <c r="K20" s="50" t="str">
         <f>IF(状态转换真值表!L21&lt;&gt;"",IF(状态转换真值表!L21=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L21=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L20" s="63" t="str">
+      <c r="L20" s="59" t="str">
         <f>IF(状态转换真值表!M21&lt;&gt;"",IF(状态转换真值表!M21=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M21=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M20" s="62" t="str">
+      <c r="M20" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4605,56 +4634,56 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="50" t="str">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A21" s="46" t="str">
         <f>IF(状态转换真值表!A22=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A22=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B21" s="54" t="str">
+      <c r="B21" s="50" t="str">
         <f>IF(状态转换真值表!B22=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B22=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C21" s="54" t="str">
+      <c r="C21" s="50" t="str">
         <f>IF(状态转换真值表!C22=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C22=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D21" s="55" t="str">
+      <c r="D21" s="51" t="str">
         <f>IF(状态转换真值表!D22=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D22=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E21" s="56" t="str">
+      <c r="E21" s="52" t="str">
         <f>IF(状态转换真值表!F22&lt;&gt;"",IF(状态转换真值表!F22=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F22=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F21" s="54" t="str">
+      <c r="F21" s="50" t="str">
         <f>IF(状态转换真值表!G22&lt;&gt;"",IF(状态转换真值表!G22=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G22=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G21" s="54" t="str">
+      <c r="G21" s="50" t="str">
         <f>IF(状态转换真值表!H22&lt;&gt;"",IF(状态转换真值表!H22=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H22=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H21" s="54" t="str">
+      <c r="H21" s="50" t="str">
         <f>IF(状态转换真值表!I22&lt;&gt;"",IF(状态转换真值表!I22=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I22=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I21" s="54" t="str">
+      <c r="I21" s="50" t="str">
         <f>IF(状态转换真值表!J22&lt;&gt;"",IF(状态转换真值表!J22=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J22=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J21" s="54" t="str">
+      <c r="J21" s="50" t="str">
         <f>IF(状态转换真值表!K22&lt;&gt;"",IF(状态转换真值表!K22=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K22=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K21" s="54" t="str">
+      <c r="K21" s="50" t="str">
         <f>IF(状态转换真值表!L22&lt;&gt;"",IF(状态转换真值表!L22=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L22=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L21" s="63" t="str">
+      <c r="L21" s="59" t="str">
         <f>IF(状态转换真值表!M22&lt;&gt;"",IF(状态转换真值表!M22=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M22=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="62" t="str">
+      <c r="M21" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4675,56 +4704,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="50" t="str">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A22" s="46" t="str">
         <f>IF(状态转换真值表!A23=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A23=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B22" s="54" t="str">
+      <c r="B22" s="50" t="str">
         <f>IF(状态转换真值表!B23=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B23=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C22" s="54" t="str">
+      <c r="C22" s="50" t="str">
         <f>IF(状态转换真值表!C23=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C23=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="51" t="str">
         <f>IF(状态转换真值表!D23=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D23=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E22" s="56" t="str">
+      <c r="E22" s="52" t="str">
         <f>IF(状态转换真值表!F23&lt;&gt;"",IF(状态转换真值表!F23=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F23=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F22" s="54" t="str">
+      <c r="F22" s="50" t="str">
         <f>IF(状态转换真值表!G23&lt;&gt;"",IF(状态转换真值表!G23=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G23=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G22" s="54" t="str">
+      <c r="G22" s="50" t="str">
         <f>IF(状态转换真值表!H23&lt;&gt;"",IF(状态转换真值表!H23=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H23=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H22" s="54" t="str">
+      <c r="H22" s="50" t="str">
         <f>IF(状态转换真值表!I23&lt;&gt;"",IF(状态转换真值表!I23=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I23=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I22" s="54" t="str">
+      <c r="I22" s="50" t="str">
         <f>IF(状态转换真值表!J23&lt;&gt;"",IF(状态转换真值表!J23=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J23=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J22" s="54" t="str">
+      <c r="J22" s="50" t="str">
         <f>IF(状态转换真值表!K23&lt;&gt;"",IF(状态转换真值表!K23=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K23=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K22" s="54" t="str">
+      <c r="K22" s="50" t="str">
         <f>IF(状态转换真值表!L23&lt;&gt;"",IF(状态转换真值表!L23=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L23=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L22" s="63" t="str">
+      <c r="L22" s="59" t="str">
         <f>IF(状态转换真值表!M23&lt;&gt;"",IF(状态转换真值表!M23=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M23=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M22" s="62" t="str">
+      <c r="M22" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4745,56 +4774,56 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="50" t="str">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A23" s="46" t="str">
         <f>IF(状态转换真值表!A24=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A24=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B23" s="54" t="str">
+      <c r="B23" s="50" t="str">
         <f>IF(状态转换真值表!B24=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B24=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C23" s="54" t="str">
+      <c r="C23" s="50" t="str">
         <f>IF(状态转换真值表!C24=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C24=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D23" s="55" t="str">
+      <c r="D23" s="51" t="str">
         <f>IF(状态转换真值表!D24=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D24=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E23" s="56" t="str">
+      <c r="E23" s="52" t="str">
         <f>IF(状态转换真值表!F24&lt;&gt;"",IF(状态转换真值表!F24=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F24=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F23" s="54" t="str">
+      <c r="F23" s="50" t="str">
         <f>IF(状态转换真值表!G24&lt;&gt;"",IF(状态转换真值表!G24=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G24=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G23" s="54" t="str">
+      <c r="G23" s="50" t="str">
         <f>IF(状态转换真值表!H24&lt;&gt;"",IF(状态转换真值表!H24=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H24=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H23" s="54" t="str">
+      <c r="H23" s="50" t="str">
         <f>IF(状态转换真值表!I24&lt;&gt;"",IF(状态转换真值表!I24=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I24=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I23" s="54" t="str">
+      <c r="I23" s="50" t="str">
         <f>IF(状态转换真值表!J24&lt;&gt;"",IF(状态转换真值表!J24=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J24=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J23" s="54" t="str">
+      <c r="J23" s="50" t="str">
         <f>IF(状态转换真值表!K24&lt;&gt;"",IF(状态转换真值表!K24=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K24=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K23" s="54" t="str">
+      <c r="K23" s="50" t="str">
         <f>IF(状态转换真值表!L24&lt;&gt;"",IF(状态转换真值表!L24=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L24=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L23" s="63" t="str">
+      <c r="L23" s="59" t="str">
         <f>IF(状态转换真值表!M24&lt;&gt;"",IF(状态转换真值表!M24=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M24=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M23" s="62" t="str">
+      <c r="M23" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4815,56 +4844,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="50" t="str">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A24" s="46" t="str">
         <f>IF(状态转换真值表!A25=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A25=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B24" s="54" t="str">
+      <c r="B24" s="50" t="str">
         <f>IF(状态转换真值表!B25=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B25=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C24" s="54" t="str">
+      <c r="C24" s="50" t="str">
         <f>IF(状态转换真值表!C25=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C25=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D24" s="55" t="str">
+      <c r="D24" s="51" t="str">
         <f>IF(状态转换真值表!D25=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D25=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E24" s="56" t="str">
+      <c r="E24" s="52" t="str">
         <f>IF(状态转换真值表!F25&lt;&gt;"",IF(状态转换真值表!F25=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F25=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F24" s="54" t="str">
+      <c r="F24" s="50" t="str">
         <f>IF(状态转换真值表!G25&lt;&gt;"",IF(状态转换真值表!G25=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G25=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G24" s="54" t="str">
+      <c r="G24" s="50" t="str">
         <f>IF(状态转换真值表!H25&lt;&gt;"",IF(状态转换真值表!H25=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H25=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H24" s="54" t="str">
+      <c r="H24" s="50" t="str">
         <f>IF(状态转换真值表!I25&lt;&gt;"",IF(状态转换真值表!I25=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I25=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I24" s="54" t="str">
+      <c r="I24" s="50" t="str">
         <f>IF(状态转换真值表!J25&lt;&gt;"",IF(状态转换真值表!J25=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J25=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J24" s="54" t="str">
+      <c r="J24" s="50" t="str">
         <f>IF(状态转换真值表!K25&lt;&gt;"",IF(状态转换真值表!K25=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K25=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K24" s="54" t="str">
+      <c r="K24" s="50" t="str">
         <f>IF(状态转换真值表!L25&lt;&gt;"",IF(状态转换真值表!L25=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L25=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L24" s="63" t="str">
+      <c r="L24" s="59" t="str">
         <f>IF(状态转换真值表!M25&lt;&gt;"",IF(状态转换真值表!M25=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M25=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M24" s="62" t="str">
+      <c r="M24" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4885,56 +4914,56 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="50" t="str">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A25" s="46" t="str">
         <f>IF(状态转换真值表!A26=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A26=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B25" s="54" t="str">
+      <c r="B25" s="50" t="str">
         <f>IF(状态转换真值表!B26=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B26=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C25" s="54" t="str">
+      <c r="C25" s="50" t="str">
         <f>IF(状态转换真值表!C26=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C26=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D25" s="55" t="str">
+      <c r="D25" s="51" t="str">
         <f>IF(状态转换真值表!D26=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D26=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E25" s="56" t="str">
+      <c r="E25" s="52" t="str">
         <f>IF(状态转换真值表!F26&lt;&gt;"",IF(状态转换真值表!F26=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F26=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F25" s="54" t="str">
+      <c r="F25" s="50" t="str">
         <f>IF(状态转换真值表!G26&lt;&gt;"",IF(状态转换真值表!G26=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G26=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G25" s="54" t="str">
+      <c r="G25" s="50" t="str">
         <f>IF(状态转换真值表!H26&lt;&gt;"",IF(状态转换真值表!H26=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H26=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="54" t="str">
+      <c r="H25" s="50" t="str">
         <f>IF(状态转换真值表!I26&lt;&gt;"",IF(状态转换真值表!I26=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I26=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I25" s="54" t="str">
+      <c r="I25" s="50" t="str">
         <f>IF(状态转换真值表!J26&lt;&gt;"",IF(状态转换真值表!J26=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J26=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J25" s="54" t="str">
+      <c r="J25" s="50" t="str">
         <f>IF(状态转换真值表!K26&lt;&gt;"",IF(状态转换真值表!K26=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K26=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K25" s="54" t="str">
+      <c r="K25" s="50" t="str">
         <f>IF(状态转换真值表!L26&lt;&gt;"",IF(状态转换真值表!L26=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L26=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L25" s="63" t="str">
+      <c r="L25" s="59" t="str">
         <f>IF(状态转换真值表!M26&lt;&gt;"",IF(状态转换真值表!M26=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M26=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M25" s="62" t="str">
+      <c r="M25" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4955,56 +4984,56 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="50" t="str">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A26" s="46" t="str">
         <f>IF(状态转换真值表!A27=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A27=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B26" s="54" t="str">
+      <c r="B26" s="50" t="str">
         <f>IF(状态转换真值表!B27=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B27=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C26" s="54" t="str">
+      <c r="C26" s="50" t="str">
         <f>IF(状态转换真值表!C27=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C27=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D26" s="55" t="str">
+      <c r="D26" s="51" t="str">
         <f>IF(状态转换真值表!D27=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D27=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E26" s="56" t="str">
+      <c r="E26" s="52" t="str">
         <f>IF(状态转换真值表!F27&lt;&gt;"",IF(状态转换真值表!F27=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F27=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F26" s="54" t="str">
+      <c r="F26" s="50" t="str">
         <f>IF(状态转换真值表!G27&lt;&gt;"",IF(状态转换真值表!G27=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G27=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G26" s="54" t="str">
+      <c r="G26" s="50" t="str">
         <f>IF(状态转换真值表!H27&lt;&gt;"",IF(状态转换真值表!H27=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H27=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H26" s="54" t="str">
+      <c r="H26" s="50" t="str">
         <f>IF(状态转换真值表!I27&lt;&gt;"",IF(状态转换真值表!I27=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I27=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I26" s="54" t="str">
+      <c r="I26" s="50" t="str">
         <f>IF(状态转换真值表!J27&lt;&gt;"",IF(状态转换真值表!J27=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J27=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J26" s="54" t="str">
+      <c r="J26" s="50" t="str">
         <f>IF(状态转换真值表!K27&lt;&gt;"",IF(状态转换真值表!K27=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K27=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K26" s="54" t="str">
+      <c r="K26" s="50" t="str">
         <f>IF(状态转换真值表!L27&lt;&gt;"",IF(状态转换真值表!L27=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L27=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L26" s="63" t="str">
+      <c r="L26" s="59" t="str">
         <f>IF(状态转换真值表!M27&lt;&gt;"",IF(状态转换真值表!M27=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M27=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M26" s="62" t="str">
+      <c r="M26" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5025,56 +5054,56 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="50" t="str">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A27" s="46" t="str">
         <f>IF(状态转换真值表!A28=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A28=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B27" s="54" t="str">
+      <c r="B27" s="50" t="str">
         <f>IF(状态转换真值表!B28=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B28=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C27" s="54" t="str">
+      <c r="C27" s="50" t="str">
         <f>IF(状态转换真值表!C28=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C28=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D27" s="55" t="str">
+      <c r="D27" s="51" t="str">
         <f>IF(状态转换真值表!D28=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D28=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E27" s="56" t="str">
+      <c r="E27" s="52" t="str">
         <f>IF(状态转换真值表!F28&lt;&gt;"",IF(状态转换真值表!F28=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F28=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F27" s="54" t="str">
+      <c r="F27" s="50" t="str">
         <f>IF(状态转换真值表!G28&lt;&gt;"",IF(状态转换真值表!G28=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G28=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G27" s="54" t="str">
+      <c r="G27" s="50" t="str">
         <f>IF(状态转换真值表!H28&lt;&gt;"",IF(状态转换真值表!H28=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H28=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H27" s="54" t="str">
+      <c r="H27" s="50" t="str">
         <f>IF(状态转换真值表!I28&lt;&gt;"",IF(状态转换真值表!I28=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I28=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I27" s="54" t="str">
+      <c r="I27" s="50" t="str">
         <f>IF(状态转换真值表!J28&lt;&gt;"",IF(状态转换真值表!J28=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J28=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J27" s="54" t="str">
+      <c r="J27" s="50" t="str">
         <f>IF(状态转换真值表!K28&lt;&gt;"",IF(状态转换真值表!K28=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K28=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="54" t="str">
+      <c r="K27" s="50" t="str">
         <f>IF(状态转换真值表!L28&lt;&gt;"",IF(状态转换真值表!L28=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L28=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L27" s="63" t="str">
+      <c r="L27" s="59" t="str">
         <f>IF(状态转换真值表!M28&lt;&gt;"",IF(状态转换真值表!M28=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M28=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M27" s="62" t="str">
+      <c r="M27" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5095,56 +5124,56 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="50" t="str">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A28" s="46" t="str">
         <f>IF(状态转换真值表!A29=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A29=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B28" s="54" t="str">
+      <c r="B28" s="50" t="str">
         <f>IF(状态转换真值表!B29=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B29=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C28" s="54" t="str">
+      <c r="C28" s="50" t="str">
         <f>IF(状态转换真值表!C29=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C29=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D28" s="55" t="str">
+      <c r="D28" s="51" t="str">
         <f>IF(状态转换真值表!D29=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D29=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E28" s="56" t="str">
+      <c r="E28" s="52" t="str">
         <f>IF(状态转换真值表!F29&lt;&gt;"",IF(状态转换真值表!F29=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F29=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F28" s="54" t="str">
+      <c r="F28" s="50" t="str">
         <f>IF(状态转换真值表!G29&lt;&gt;"",IF(状态转换真值表!G29=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G29=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G28" s="54" t="str">
+      <c r="G28" s="50" t="str">
         <f>IF(状态转换真值表!H29&lt;&gt;"",IF(状态转换真值表!H29=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H29=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H28" s="54" t="str">
+      <c r="H28" s="50" t="str">
         <f>IF(状态转换真值表!I29&lt;&gt;"",IF(状态转换真值表!I29=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I29=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I28" s="54" t="str">
+      <c r="I28" s="50" t="str">
         <f>IF(状态转换真值表!J29&lt;&gt;"",IF(状态转换真值表!J29=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J29=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J28" s="54" t="str">
+      <c r="J28" s="50" t="str">
         <f>IF(状态转换真值表!K29&lt;&gt;"",IF(状态转换真值表!K29=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K29=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K28" s="54" t="str">
+      <c r="K28" s="50" t="str">
         <f>IF(状态转换真值表!L29&lt;&gt;"",IF(状态转换真值表!L29=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L29=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L28" s="63" t="str">
+      <c r="L28" s="59" t="str">
         <f>IF(状态转换真值表!M29&lt;&gt;"",IF(状态转换真值表!M29=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M29=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M28" s="62" t="str">
+      <c r="M28" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5165,56 +5194,56 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="50" t="str">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A29" s="46" t="str">
         <f>IF(状态转换真值表!A30=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A30=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B29" s="54" t="str">
+      <c r="B29" s="50" t="str">
         <f>IF(状态转换真值表!B30=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B30=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C29" s="54" t="str">
+      <c r="C29" s="50" t="str">
         <f>IF(状态转换真值表!C30=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C30=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D29" s="55" t="str">
+      <c r="D29" s="51" t="str">
         <f>IF(状态转换真值表!D30=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D30=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E29" s="56" t="str">
+      <c r="E29" s="52" t="str">
         <f>IF(状态转换真值表!F30&lt;&gt;"",IF(状态转换真值表!F30=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F30=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F29" s="54" t="str">
+      <c r="F29" s="50" t="str">
         <f>IF(状态转换真值表!G30&lt;&gt;"",IF(状态转换真值表!G30=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G30=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G29" s="54" t="str">
+      <c r="G29" s="50" t="str">
         <f>IF(状态转换真值表!H30&lt;&gt;"",IF(状态转换真值表!H30=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H30=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H29" s="54" t="str">
+      <c r="H29" s="50" t="str">
         <f>IF(状态转换真值表!I30&lt;&gt;"",IF(状态转换真值表!I30=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I30=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I29" s="54" t="str">
+      <c r="I29" s="50" t="str">
         <f>IF(状态转换真值表!J30&lt;&gt;"",IF(状态转换真值表!J30=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J30=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J29" s="54" t="str">
+      <c r="J29" s="50" t="str">
         <f>IF(状态转换真值表!K30&lt;&gt;"",IF(状态转换真值表!K30=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K30=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K29" s="54" t="str">
+      <c r="K29" s="50" t="str">
         <f>IF(状态转换真值表!L30&lt;&gt;"",IF(状态转换真值表!L30=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L30=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L29" s="63" t="str">
+      <c r="L29" s="59" t="str">
         <f>IF(状态转换真值表!M30&lt;&gt;"",IF(状态转换真值表!M30=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M30=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M29" s="62" t="str">
+      <c r="M29" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5235,56 +5264,56 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.25">
-      <c r="A30" s="50" t="str">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A30" s="46" t="str">
         <f>IF(状态转换真值表!A31=1,状态转换真值表!A$2&amp;"&amp;",IF(状态转换真值表!A31=0,"~"&amp;状态转换真值表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B30" s="57" t="str">
+      <c r="B30" s="53" t="str">
         <f>IF(状态转换真值表!B31=1,状态转换真值表!B$2&amp;"&amp;",IF(状态转换真值表!B31=0,"~"&amp;状态转换真值表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C30" s="57" t="str">
+      <c r="C30" s="53" t="str">
         <f>IF(状态转换真值表!C31=1,状态转换真值表!C$2&amp;"&amp;",IF(状态转换真值表!C31=0,"~"&amp;状态转换真值表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D30" s="58" t="str">
+      <c r="D30" s="54" t="str">
         <f>IF(状态转换真值表!D31=1,状态转换真值表!D$2&amp;"&amp;",IF(状态转换真值表!D31=0,"~"&amp;状态转换真值表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E30" s="56" t="str">
+      <c r="E30" s="52" t="str">
         <f>IF(状态转换真值表!F31&lt;&gt;"",IF(状态转换真值表!F31=1,状态转换真值表!F$2&amp;"&amp;",IF(状态转换真值表!F31=0,"~"&amp;状态转换真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F30" s="54" t="str">
+      <c r="F30" s="50" t="str">
         <f>IF(状态转换真值表!G31&lt;&gt;"",IF(状态转换真值表!G31=1,状态转换真值表!G$2&amp;"&amp;",IF(状态转换真值表!G31=0,"~"&amp;状态转换真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G30" s="54" t="str">
+      <c r="G30" s="50" t="str">
         <f>IF(状态转换真值表!H31&lt;&gt;"",IF(状态转换真值表!H31=1,状态转换真值表!H$2&amp;"&amp;",IF(状态转换真值表!H31=0,"~"&amp;状态转换真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H30" s="54" t="str">
+      <c r="H30" s="50" t="str">
         <f>IF(状态转换真值表!I31&lt;&gt;"",IF(状态转换真值表!I31=1,状态转换真值表!I$2&amp;"&amp;",IF(状态转换真值表!I31=0,"~"&amp;状态转换真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I30" s="54" t="str">
+      <c r="I30" s="50" t="str">
         <f>IF(状态转换真值表!J31&lt;&gt;"",IF(状态转换真值表!J31=1,状态转换真值表!J$2&amp;"&amp;",IF(状态转换真值表!J31=0,"~"&amp;状态转换真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J30" s="54" t="str">
+      <c r="J30" s="50" t="str">
         <f>IF(状态转换真值表!K31&lt;&gt;"",IF(状态转换真值表!K31=1,状态转换真值表!K$2&amp;"&amp;",IF(状态转换真值表!K31=0,"~"&amp;状态转换真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K30" s="54" t="str">
+      <c r="K30" s="50" t="str">
         <f>IF(状态转换真值表!L31&lt;&gt;"",IF(状态转换真值表!L31=1,状态转换真值表!L$2&amp;"&amp;",IF(状态转换真值表!L31=0,"~"&amp;状态转换真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L30" s="63" t="str">
+      <c r="L30" s="59" t="str">
         <f>IF(状态转换真值表!M31&lt;&gt;"",IF(状态转换真值表!M31=1,状态转换真值表!M$2&amp;"&amp;",IF(状态转换真值表!M31=0,"~"&amp;状态转换真值表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M30" s="62" t="str">
+      <c r="M30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5305,86 +5334,86 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75">
-      <c r="A31" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="81"/>
+    <row r="31" spans="1:17" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="85"/>
       <c r="N31" s="21" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="O31" s="21" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+~S3&amp;S2&amp;S1&amp;~S0</v>
       </c>
       <c r="P31" s="21" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;In1&amp;In3&amp;~In4</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+~S3&amp;S2&amp;S1&amp;~S0</v>
       </c>
       <c r="Q31" s="22" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0&amp;In1&amp;In2&amp;In3&amp;~In4&amp;In5&amp;~In6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="94" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;~S0+~S3&amp;S2&amp;S1&amp;~S0+S3&amp;~S2&amp;~S1&amp;~S0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v/>
-      </c>
-      <c r="O32" s="94" t="str">
+        <v>~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;~S1&amp;~S0+</v>
+      </c>
+      <c r="O32" s="72" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v/>
-      </c>
-      <c r="P32" s="94" t="str">
+        <v>~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+~S3&amp;S2&amp;S1&amp;~S0+</v>
+      </c>
+      <c r="P32" s="72" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;In1&amp;In3&amp;~In4+</v>
-      </c>
-      <c r="Q32" s="94" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+~S3&amp;S2&amp;S1&amp;~S0+</v>
+      </c>
+      <c r="Q32" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0&amp;In1&amp;In2&amp;In3&amp;~In4&amp;In5&amp;~In6+</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" ht="15">
-      <c r="E34" s="82" t="s">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;~S0+~S3&amp;S2&amp;S1&amp;~S0+S3&amp;~S2&amp;~S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="E34" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+    </row>
+    <row r="35" spans="3:15" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="C35" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-    </row>
-    <row r="35" spans="3:15" ht="15">
-      <c r="C35" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -5395,11 +5424,10 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="64"/>
-    </row>
-    <row r="36" spans="3:15" ht="15">
-      <c r="O36" s="23" t="s">
-        <v>26</v>
+    </row>
+    <row r="36" spans="3:15" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="O36" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5410,6 +5438,7 @@
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="E34:M34"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="N31:Q31">
     <cfRule type="containsBlanks" dxfId="10" priority="31">
       <formula>LEN(TRIM(N31))=0</formula>
@@ -5426,8 +5455,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位生成条件最小项" sqref="N1:Q30" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5438,1292 +5467,1289 @@
   </sheetPr>
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="3.625" style="24" customWidth="1"/>
-    <col min="5" max="6" width="7.625" style="25" customWidth="1"/>
-    <col min="7" max="13" width="6.625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="24" customWidth="1"/>
-    <col min="15" max="16" width="8.625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="25" customWidth="1"/>
-    <col min="18" max="23" width="8.625" style="24" customWidth="1"/>
-    <col min="24" max="25" width="8.625" style="25" customWidth="1"/>
+    <col min="1" max="4" width="3.59765625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7" max="13" width="6.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="23" customWidth="1"/>
+    <col min="15" max="25" width="8.59765625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-    </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28" t="str">
+      <c r="F2" s="26" t="str">
         <f>状态转换真值表!F2</f>
         <v>In1</v>
       </c>
-      <c r="G2" s="29" t="str">
+      <c r="G2" s="27" t="str">
         <f>状态转换真值表!G2</f>
         <v>In2</v>
       </c>
-      <c r="H2" s="29" t="str">
+      <c r="H2" s="27" t="str">
         <f>状态转换真值表!H2</f>
         <v>In3</v>
       </c>
-      <c r="I2" s="29" t="str">
+      <c r="I2" s="27" t="str">
         <f>状态转换真值表!I2</f>
         <v>In4</v>
       </c>
-      <c r="J2" s="29" t="str">
+      <c r="J2" s="27" t="str">
         <f>状态转换真值表!J2</f>
         <v>In5</v>
       </c>
-      <c r="K2" s="29" t="str">
+      <c r="K2" s="27" t="str">
         <f>状态转换真值表!K2</f>
         <v>In6</v>
       </c>
-      <c r="L2" s="29" t="str">
+      <c r="L2" s="27" t="str">
         <f>状态转换真值表!L2</f>
         <v>In7</v>
       </c>
-      <c r="M2" s="38" t="str">
+      <c r="M2" s="34" t="str">
         <f>状态转换真值表!M2</f>
         <v>In8</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="Q2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="U2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="V2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="W2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="X2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="Y2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75">
-      <c r="A3" s="30">
+    </row>
+    <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A3" s="28">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <f>IF(ISNUMBER($E3),MOD($E3,2),"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="65">
         <v>0</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-    </row>
-    <row r="4" spans="1:25" ht="15">
-      <c r="A4" s="34">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A4" s="31">
         <f t="shared" ref="A4:A31" si="0">IF(ISNUMBER($E4),IF(MOD($E4,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <f t="shared" ref="B4:B31" si="1">IF(ISNUMBER($E4),IF(MOD($E4,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C31" si="2">IF(ISNUMBER($E4),IF(MOD($E4,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <f t="shared" ref="D4:D31" si="3">IF(ISNUMBER($E4),MOD($E4,2),"")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="67">
         <v>1</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33">
         <v>1</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-    </row>
-    <row r="5" spans="1:25" ht="15">
-      <c r="A5" s="30" t="str">
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A5" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33">
+      <c r="E5" s="65"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30">
         <v>1</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-    </row>
-    <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="34" t="str">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="34" t="str">
+      <c r="B6" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C6" s="34" t="str">
+      <c r="C6" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-    </row>
-    <row r="7" spans="1:25" ht="15">
-      <c r="A7" s="30" t="str">
+      <c r="E6" s="67"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A7" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D7" s="31" t="str">
+      <c r="D7" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-    </row>
-    <row r="8" spans="1:25" ht="15">
-      <c r="A8" s="34" t="str">
+      <c r="E7" s="65"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="34" t="str">
+      <c r="B8" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C8" s="34" t="str">
+      <c r="C8" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-    </row>
-    <row r="9" spans="1:25" ht="15">
-      <c r="A9" s="30" t="str">
+      <c r="E8" s="67"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A9" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D9" s="31" t="str">
+      <c r="D9" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-    </row>
-    <row r="10" spans="1:25" ht="15">
-      <c r="A10" s="34" t="str">
+      <c r="E9" s="65"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C10" s="34" t="str">
+      <c r="C10" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-    </row>
-    <row r="11" spans="1:25" ht="15">
-      <c r="A11" s="30" t="str">
+      <c r="E10" s="67"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A11" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D11" s="31" t="str">
+      <c r="D11" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-    </row>
-    <row r="12" spans="1:25" ht="15">
-      <c r="A12" s="34" t="str">
+      <c r="E11" s="65"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C12" s="34" t="str">
+      <c r="C12" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D12" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-    </row>
-    <row r="13" spans="1:25" ht="15">
-      <c r="A13" s="30" t="str">
+      <c r="E12" s="67"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A13" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D13" s="31" t="str">
+      <c r="D13" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-    </row>
-    <row r="14" spans="1:25" ht="15">
-      <c r="A14" s="34" t="str">
+      <c r="E13" s="65"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C14" s="34" t="str">
+      <c r="C14" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-    </row>
-    <row r="15" spans="1:25" ht="15">
-      <c r="A15" s="30" t="str">
+      <c r="E14" s="67"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A15" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D15" s="31" t="str">
+      <c r="D15" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-    </row>
-    <row r="16" spans="1:25" ht="15">
-      <c r="A16" s="34" t="str">
+      <c r="E15" s="65"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="34" t="str">
+      <c r="B16" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C16" s="34" t="str">
+      <c r="C16" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-    </row>
-    <row r="17" spans="1:25" ht="15">
-      <c r="A17" s="30" t="str">
+      <c r="E16" s="67"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A17" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D17" s="31" t="str">
+      <c r="D17" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-    </row>
-    <row r="18" spans="1:25" ht="15">
-      <c r="A18" s="34" t="str">
+      <c r="E17" s="65"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="34" t="str">
+      <c r="B18" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C18" s="34" t="str">
+      <c r="C18" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-    </row>
-    <row r="19" spans="1:25" ht="15">
-      <c r="A19" s="30" t="str">
+      <c r="E18" s="67"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A19" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="30" t="str">
+      <c r="B19" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D19" s="31" t="str">
+      <c r="D19" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-    </row>
-    <row r="20" spans="1:25" ht="15">
-      <c r="A20" s="34" t="str">
+      <c r="E19" s="65"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="34" t="str">
+      <c r="B20" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C20" s="34" t="str">
+      <c r="C20" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D20" s="35" t="str">
+      <c r="D20" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-    </row>
-    <row r="21" spans="1:25" ht="15">
-      <c r="A21" s="30" t="str">
+      <c r="E20" s="67"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A21" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="30" t="str">
+      <c r="B21" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-    </row>
-    <row r="22" spans="1:25" ht="15">
-      <c r="A22" s="34" t="str">
+      <c r="E21" s="65"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="34" t="str">
+      <c r="B22" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C22" s="34" t="str">
+      <c r="C22" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D22" s="35" t="str">
+      <c r="D22" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-    </row>
-    <row r="23" spans="1:25" ht="15">
-      <c r="A23" s="30" t="str">
+      <c r="E22" s="67"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A23" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D23" s="31" t="str">
+      <c r="D23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-    </row>
-    <row r="24" spans="1:25" ht="15">
-      <c r="A24" s="34" t="str">
+      <c r="E23" s="65"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B24" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C24" s="34" t="str">
+      <c r="C24" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D24" s="35" t="str">
+      <c r="D24" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-    </row>
-    <row r="25" spans="1:25" ht="15">
-      <c r="A25" s="30" t="str">
+      <c r="E24" s="67"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A25" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D25" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-    </row>
-    <row r="26" spans="1:25" ht="15">
-      <c r="A26" s="34" t="str">
+      <c r="E25" s="65"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+    </row>
+    <row r="26" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B26" s="34" t="str">
+      <c r="B26" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C26" s="34" t="str">
+      <c r="C26" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-    </row>
-    <row r="27" spans="1:25" ht="15">
-      <c r="A27" s="30" t="str">
+      <c r="E26" s="67"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A27" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C27" s="30" t="str">
+      <c r="C27" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D27" s="31" t="str">
+      <c r="D27" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-    </row>
-    <row r="28" spans="1:25" ht="15">
-      <c r="A28" s="34" t="str">
+      <c r="E27" s="65"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+    </row>
+    <row r="28" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B28" s="34" t="str">
+      <c r="B28" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C28" s="34" t="str">
+      <c r="C28" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D28" s="35" t="str">
+      <c r="D28" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-    </row>
-    <row r="29" spans="1:25" ht="15">
-      <c r="A29" s="30" t="str">
+      <c r="E28" s="67"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C29" s="30" t="str">
+      <c r="C29" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D29" s="31" t="str">
+      <c r="D29" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-    </row>
-    <row r="30" spans="1:25" ht="15">
-      <c r="A30" s="34" t="str">
+      <c r="E29" s="65"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B30" s="34" t="str">
+      <c r="B30" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C30" s="34" t="str">
+      <c r="C30" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D30" s="35" t="str">
+      <c r="D30" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-    </row>
-    <row r="31" spans="1:25" ht="15">
-      <c r="A31" s="30" t="str">
+      <c r="E30" s="67"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B31" s="30" t="str">
+      <c r="B31" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C31" s="30" t="str">
+      <c r="C31" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D31" s="31" t="str">
+      <c r="D31" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-    </row>
-    <row r="32" spans="1:25" ht="15">
-      <c r="F32" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+    </row>
+    <row r="32" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="F32" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6736,6 +6762,7 @@
     <mergeCell ref="N1:Y1"/>
     <mergeCell ref="F32:M32"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="F3:M31">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>1</formula>
@@ -6789,23 +6816,23 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="Z10" sqref="Q10:Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="12" width="4.59765625" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="20" width="8.625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.125" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="8.59765625" customWidth="1"/>
+    <col min="19" max="20" width="8.59765625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.09765625" hidden="1" customWidth="1"/>
     <col min="22" max="25" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:25" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="str">
         <f>状态转换真值表!A2</f>
         <v>S3</v>
@@ -6855,58 +6882,58 @@
         <v>In8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="95" t="str">
+        <v>21</v>
+      </c>
+      <c r="N1" s="73" t="str">
         <f>输出函数真值表!N2</f>
         <v>Out1</v>
       </c>
-      <c r="O1" s="95" t="str">
+      <c r="O1" s="73" t="str">
         <f>输出函数真值表!O2</f>
         <v>Out2</v>
       </c>
-      <c r="P1" s="95" t="str">
+      <c r="P1" s="73" t="str">
         <f>输出函数真值表!P2</f>
         <v>Out3</v>
       </c>
-      <c r="Q1" s="95" t="str">
+      <c r="Q1" s="73" t="str">
         <f>输出函数真值表!Q2</f>
         <v>Out4</v>
       </c>
-      <c r="R1" s="95" t="str">
+      <c r="R1" s="73" t="str">
         <f>输出函数真值表!R2</f>
         <v>Out5</v>
       </c>
-      <c r="S1" s="95" t="str">
+      <c r="S1" s="73" t="str">
         <f>输出函数真值表!S2</f>
         <v>Out6</v>
       </c>
-      <c r="T1" s="95" t="str">
+      <c r="T1" s="73" t="str">
         <f>输出函数真值表!T2</f>
         <v>Out7</v>
       </c>
-      <c r="U1" s="95" t="str">
+      <c r="U1" s="73" t="str">
         <f>输出函数真值表!U2</f>
         <v>Out8</v>
       </c>
-      <c r="V1" s="95" t="str">
+      <c r="V1" s="73" t="str">
         <f>输出函数真值表!V2</f>
         <v>Out9</v>
       </c>
-      <c r="W1" s="95" t="str">
+      <c r="W1" s="73" t="str">
         <f>输出函数真值表!W2</f>
         <v>Out10</v>
       </c>
-      <c r="X1" s="95" t="str">
+      <c r="X1" s="73" t="str">
         <f>输出函数真值表!X2</f>
         <v>Out11</v>
       </c>
-      <c r="Y1" s="95" t="str">
+      <c r="Y1" s="73" t="str">
         <f>输出函数真值表!Y2</f>
         <v>Out12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="str">
         <f>IF(输出函数真值表!A3=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A3=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
@@ -7008,7 +7035,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="str">
         <f>IF(输出函数真值表!A4=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A4=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
@@ -7110,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="str">
         <f>IF(输出函数真值表!A5=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A5=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7212,7 +7239,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="str">
         <f>IF(输出函数真值表!A6=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A6=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7314,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="str">
         <f>IF(输出函数真值表!A7=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A7=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7416,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="str">
         <f>IF(输出函数真值表!A8=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A8=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7518,7 +7545,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="str">
         <f>IF(输出函数真值表!A9=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A9=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7620,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="str">
         <f>IF(输出函数真值表!A10=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A10=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7722,7 +7749,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="str">
         <f>IF(输出函数真值表!A11=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A11=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7824,7 +7851,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="str">
         <f>IF(输出函数真值表!A12=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A12=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -7926,7 +7953,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="str">
         <f>IF(输出函数真值表!A13=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A13=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8028,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="str">
         <f>IF(输出函数真值表!A14=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A14=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8130,7 +8157,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="str">
         <f>IF(输出函数真值表!A15=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A15=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8232,7 +8259,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="str">
         <f>IF(输出函数真值表!A16=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A16=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8334,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="str">
         <f>IF(输出函数真值表!A17=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A17=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8436,7 +8463,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="str">
         <f>IF(输出函数真值表!A18=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A18=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8538,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="str">
         <f>IF(输出函数真值表!A19=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A19=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8640,7 +8667,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="str">
         <f>IF(输出函数真值表!A20=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A20=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8742,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="str">
         <f>IF(输出函数真值表!A21=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A21=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8844,7 +8871,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="str">
         <f>IF(输出函数真值表!A22=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A22=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -8946,7 +8973,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="str">
         <f>IF(输出函数真值表!A23=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A23=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9048,7 +9075,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="str">
         <f>IF(输出函数真值表!A24=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A24=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9150,7 +9177,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="str">
         <f>IF(输出函数真值表!A25=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A25=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9252,7 +9279,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="str">
         <f>IF(输出函数真值表!A26=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A26=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9354,7 +9381,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="str">
         <f>IF(输出函数真值表!A27=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A27=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9456,7 +9483,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="str">
         <f>IF(输出函数真值表!A28=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A28=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9558,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="str">
         <f>IF(输出函数真值表!A29=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A29=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9660,7 +9687,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="str">
         <f>IF(输出函数真值表!A30=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A30=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9762,7 +9789,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="str">
         <f>IF(输出函数真值表!A31=1,输出函数真值表!A$2&amp;"&amp;",IF(输出函数真值表!A31=0,"~"&amp;输出函数真值表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -9864,22 +9891,22 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75">
-      <c r="A31" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="86"/>
+    <row r="31" spans="1:25" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="20" t="str">
         <f t="shared" ref="N31:Y31" si="1">IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
         <v/>
@@ -9929,7 +9956,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="22.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -9943,76 +9970,76 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="94" t="str">
+      <c r="N32" s="72" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
         <v/>
       </c>
-      <c r="O32" s="94" t="str">
+      <c r="O32" s="72" t="str">
         <f t="shared" ref="O32:Y32" si="2">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
         <v/>
       </c>
-      <c r="P32" s="94" t="str">
+      <c r="P32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q32" s="94" t="str">
+      <c r="Q32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R32" s="94" t="str">
+      <c r="R32" s="72" t="str">
         <f t="shared" si="2"/>
         <v>~S3&amp;~S2&amp;~S1&amp;S0+</v>
       </c>
-      <c r="S32" s="94" t="str">
+      <c r="S32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T32" s="94" t="str">
+      <c r="T32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U32" s="94" t="str">
+      <c r="U32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V32" s="94" t="str">
+      <c r="V32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W32" s="94" t="str">
+      <c r="W32" s="72" t="str">
         <f t="shared" si="2"/>
         <v>~S3&amp;~S2&amp;~S1&amp;~S0+</v>
       </c>
-      <c r="X32" s="94" t="str">
+      <c r="X32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y32" s="94" t="str">
+      <c r="Y32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:17" ht="15">
+    <row r="34" spans="4:17" ht="16.2" x14ac:dyDescent="0.5">
       <c r="D34" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" ht="16.2" x14ac:dyDescent="0.5">
+      <c r="D37" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="Q37" s="14" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="4:17" ht="15">
-      <c r="D37" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="Q37" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -10024,6 +10051,7 @@
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="D37:N37"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="N31:Y31">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(N31))=0</formula>
